--- a/Format_NewActivity.xlsx
+++ b/Format_NewActivity.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\saiku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\dcSchedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="205">
   <si>
     <t>Nama Activity</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Section</t>
   </si>
   <si>
-    <t>Due Date Plan</t>
-  </si>
-  <si>
     <t>Folow up NOR ke customer</t>
   </si>
   <si>
@@ -636,6 +633,12 @@
   </si>
   <si>
     <t>nys</t>
+  </si>
+  <si>
+    <t>Release material offline</t>
+  </si>
+  <si>
+    <t>Start Implementation</t>
   </si>
 </sst>
 </file>
@@ -818,15 +821,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>559594</xdr:colOff>
+      <xdr:colOff>180976</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>119062</xdr:rowOff>
+      <xdr:rowOff>119061</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>166688</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>166689</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -835,8 +838,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8405813" y="119062"/>
-          <a:ext cx="2559844" cy="1309688"/>
+          <a:off x="9982201" y="119061"/>
+          <a:ext cx="2928938" cy="1624013"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -880,7 +883,13 @@
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> yang akan terisi ke database adalah activity yang Due Date Plan nya terisi. Jika Due Date Plan nya tidak terisi, maka activity tidak akan masuk ke database</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>2. Format start Implementation = tgl/bln/thn. Contoh : 01/08/2019</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1152,17 +1161,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C191"/>
+  <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C191"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C191" sqref="C191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="86" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="108.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.5703125" style="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="12"/>
@@ -1176,2098 +1186,1795 @@
         <v>1</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>2</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C3" s="14"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C4" s="14"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="14">
-        <v>43671</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C12" s="14"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="14">
-        <v>43671</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="14"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C16" s="14"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="14">
-        <v>43671</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C17" s="14"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C20" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C20" s="14"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C22" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C22" s="14"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C24" s="14"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C25" s="14"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C26" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C26" s="14"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C27" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C27" s="14"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C28" s="14"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C29" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C29" s="14"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C30" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C30" s="14"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C31" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C31" s="14"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C32" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C32" s="14"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C33" s="14"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C34" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C34" s="14"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="14">
-        <v>43671</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="14">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="14"/>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C39" s="14"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B38" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="C38" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C39" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="13" t="s">
-        <v>93</v>
-      </c>
       <c r="C40" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C41" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C42" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="14">
-        <v>43671</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C43" s="14"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C44" s="14">
-        <v>43671</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C44" s="14"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C45" s="14">
-        <v>43671</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C45" s="14"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="14">
-        <v>43671</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C46" s="14"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C47" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="14">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="14"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B48" s="13" t="s">
+      <c r="B50" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C50" s="14"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C51" s="14"/>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B49" s="13" t="s">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C49" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B52" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C52" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C54" s="14"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C55" s="14"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C56" s="14"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C57" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C57" s="14"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C58" s="14"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C59" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C59" s="14"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C60" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C60" s="14"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="6" t="s">
-        <v>58</v>
+      <c r="A61" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C61" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C61" s="14"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C62" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>60</v>
+      <c r="A63" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C63" s="14"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C64" s="14"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C65" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C66" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="6" t="s">
-        <v>64</v>
+      <c r="A67" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C67" s="14">
-        <v>43671</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="14">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C69" s="14">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B68" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C68" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="B70" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C70" s="14"/>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B69" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B70" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B71" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C71" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C72" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B71" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C72" s="14"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C73" s="14"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C74" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C75" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C75" s="14"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="14"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C77" s="14"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B76" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C76" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C77" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="B78" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C78" s="14">
-        <v>43671</v>
+        <v>43682</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C80" s="14"/>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C81" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C81" s="14"/>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C82" s="14"/>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C83" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C83" s="14"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C84" s="14"/>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C85" s="14"/>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B86" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C86" s="14"/>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B87" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C84" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>201</v>
-      </c>
-      <c r="C85" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C86" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C87" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C88" s="14">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B88" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C89" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="B90" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C90" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C90" s="14"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C91" s="14"/>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C92" s="14"/>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B91" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C91" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C92" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="B93" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C93" s="14"/>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C94" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C94" s="14"/>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C95" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C95" s="14"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C96" s="14"/>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C97" s="14"/>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B96" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C96" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C97" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="B98" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C98" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C98" s="14"/>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B99" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C99" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B100" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C100" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C100" s="14"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="14"/>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" s="14"/>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B101" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C101" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C102" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="B103" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C103" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C103" s="14"/>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C104" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C104" s="14"/>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B105" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C105" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C105" s="14"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B106" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C106" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C106" s="14"/>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B107" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C107" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C107" s="14"/>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B108" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C108" s="14">
-        <v>43671</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C109" s="14"/>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C110" s="14"/>
+    </row>
+    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B109" s="13" t="s">
+      <c r="B111" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C111" s="14"/>
+    </row>
+    <row r="112" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B112" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C112" s="14">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C113" s="14">
+        <v>43686</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C114" s="14"/>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="14"/>
+    </row>
+    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C116" s="14"/>
+    </row>
+    <row r="117" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B117" s="16" t="s">
         <v>202</v>
       </c>
-      <c r="C109" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C110" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B111" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C111" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C112" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C113" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C114" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C115" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B116" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C116" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>203</v>
-      </c>
       <c r="C117" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B118" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C118" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C118" s="14"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B119" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C119" s="14"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C120" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C120" s="14"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B121" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C121" s="14">
-        <v>43671</v>
+        <v>43685</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B122" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C122" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C122" s="14"/>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B123" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C123" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C123" s="14"/>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C124" s="14"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C125" s="14"/>
+    </row>
+    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B124" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C124" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="B126" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C126" s="14"/>
+    </row>
+    <row r="127" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="B125" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C125" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C126" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C127" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B127" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C127" s="14"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B128" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C128" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C128" s="14"/>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B129" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C129" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C129" s="14"/>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>159</v>
+      <c r="A130" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B130" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C130" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C130" s="14"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B131" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C131" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C131" s="14"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C132" s="14"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C133" s="14"/>
+    </row>
+    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B132" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C132" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="B134" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C134" s="14"/>
+    </row>
+    <row r="135" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="B133" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C133" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B134" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C134" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C135" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B135" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C135" s="14"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B136" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C136" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C136" s="14"/>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B137" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C137" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C137" s="14"/>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B138" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C138" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C138" s="14"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B139" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C139" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C139" s="14"/>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B140" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C140" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C140" s="14"/>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>170</v>
+      <c r="A141" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B141" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C141" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C141" s="14"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B142" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C142" s="14">
-        <v>43671</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="C142" s="14"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C143" s="14"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C144" s="14"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C145" s="14"/>
+    </row>
+    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B143" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C143" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C144" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="C145" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B146" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="C146" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B147" s="13" t="s">
-        <v>95</v>
+      <c r="B146" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C146" s="14"/>
+    </row>
+    <row r="147" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B147" s="16" t="s">
+        <v>94</v>
       </c>
       <c r="C147" s="14">
-        <v>43671</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C148" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C148" s="14"/>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B149" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C149" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C149" s="14"/>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B150" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C150" s="14">
-        <v>43671</v>
+        <v>43676</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B151" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C151" s="14">
-        <v>43671</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C151" s="14"/>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B152" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C152" s="14"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B153" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C153" s="14"/>
+    </row>
+    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B152" s="13" t="s">
+      <c r="B154" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C154" s="14"/>
+    </row>
+    <row r="155" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B155" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="C152" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B153" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C153" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B154" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C154" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B155" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C155" s="14">
-        <v>43671</v>
-      </c>
+      <c r="C155" s="14"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C156" s="14">
-        <v>43671</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C156" s="14"/>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B157" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C157" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B158" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C158" s="14">
-        <v>43671</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C158" s="14"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B159" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C159" s="14"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B160" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C160" s="14"/>
+    </row>
+    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B159" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C159" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B160" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C160" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B161" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C161" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B162" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C162" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B161" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C161" s="14"/>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="C162" s="14"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C163" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C163" s="14"/>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B164" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C164" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B165" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C165" s="14">
-        <v>43671</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C165" s="14"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C166" s="14"/>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C167" s="14"/>
+    </row>
+    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B166" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C166" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B167" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C167" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="9" t="s">
+      <c r="B168" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C168" s="14"/>
+    </row>
+    <row r="169" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B169" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C169" s="14"/>
+    </row>
+    <row r="170" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B170" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="C168" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="10" t="s">
+      <c r="C170" s="14"/>
+    </row>
+    <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B169" s="18" t="s">
+      <c r="B171" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C171" s="14"/>
+    </row>
+    <row r="172" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B172" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C169" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B170" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="C170" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B171" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C171" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B172" s="13" t="s">
-        <v>99</v>
-      </c>
       <c r="C172" s="14">
-        <v>43671</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B173" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C173" s="14">
-        <v>43671</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C173" s="14"/>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B174" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C174" s="14">
-        <v>43671</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C174" s="14"/>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B175" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C175" s="14"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B176" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C176" s="14"/>
+    </row>
+    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B175" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C175" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B176" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C176" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="B177" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C177" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B178" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C178" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B177" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C177" s="14"/>
+    </row>
+    <row r="178" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C178" s="14"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B179" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C179" s="14">
-        <v>43671</v>
+        <v>43677</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C180" s="14"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C181" s="14">
+        <v>43684</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B180" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C180" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="B182" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C182" s="14">
+        <v>43690</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B181" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C181" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A182" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B182" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C182" s="14">
-        <v>43671</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B183" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C183" s="14">
-        <v>43671</v>
-      </c>
+      <c r="B183" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C183" s="14"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B184" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C184" s="14">
-        <v>43671</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C184" s="14"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B185" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C185" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B186" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C186" s="14">
-        <v>43671</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B187" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C187" s="14">
-        <v>43671</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C187" s="14"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B188" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C188" s="14">
-        <v>43671</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C188" s="14"/>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B189" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C189" s="14">
-        <v>43671</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B190" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C190" s="14">
-        <v>43671</v>
+        <v>43679</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B191" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C191" s="14">
-        <v>43671</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C191" s="14"/>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C192" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Format_NewActivity.xlsx
+++ b/Format_NewActivity.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="208">
   <si>
     <t>Nama Activity</t>
   </si>
@@ -639,6 +639,15 @@
   </si>
   <si>
     <t>Start Implementation</t>
+  </si>
+  <si>
+    <t>Insert list material baru ke nys</t>
+  </si>
+  <si>
+    <t>(fa) partner material</t>
+  </si>
+  <si>
+    <t>cek buzzer</t>
   </si>
 </sst>
 </file>
@@ -684,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -763,12 +772,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -798,6 +822,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -881,7 +909,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> yang akan terisi ke database adalah activity yang Due Date Plan nya terisi. Jika Due Date Plan nya tidak terisi, maka activity tidak akan masuk ke database</a:t>
+            <a:t> yang akan terisi ke database adalah activity yang Start Implementation nya terisi. Jika </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Start Implementation</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> nya tidak terisi, maka activity tidak akan masuk ke database</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1161,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C192"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+    <sheetView tabSelected="1" topLeftCell="A185" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1242,7 +1286,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="14">
-        <v>43676</v>
+        <v>43685</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1279,7 +1323,9 @@
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="14"/>
+      <c r="C11" s="14">
+        <v>43690</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1298,7 +1344,7 @@
         <v>14</v>
       </c>
       <c r="C13" s="14">
-        <v>43677</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,7 +1364,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="14">
-        <v>43686</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1355,9 +1401,7 @@
       <c r="B19" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C19" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C19" s="14"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
@@ -1375,9 +1419,7 @@
       <c r="B21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="14">
-        <v>43679</v>
-      </c>
+      <c r="C21" s="14"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
@@ -1395,9 +1437,7 @@
       <c r="B23" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C23" s="14"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
@@ -1523,9 +1563,7 @@
       <c r="B37" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="C37" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C37" s="14"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
@@ -1552,9 +1590,7 @@
       <c r="B40" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="C40" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
@@ -1563,9 +1599,7 @@
       <c r="B41" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C41" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C41" s="14"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -1574,9 +1608,7 @@
       <c r="B42" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C42" s="14"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
@@ -1621,9 +1653,7 @@
       <c r="B47" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C47" s="14"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -1633,7 +1663,7 @@
         <v>92</v>
       </c>
       <c r="C48" s="14">
-        <v>43686</v>
+        <v>43704</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,44 +1685,44 @@
       <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>46</v>
+      <c r="A51" s="6" t="s">
+        <v>207</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>92</v>
       </c>
       <c r="C51" s="14"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="14"/>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B53" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="14"/>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="C53" s="14"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B53" s="16" t="s">
+      <c r="B54" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="14"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="6" t="s">
+      <c r="C54" s="14"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C54" s="14"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>93</v>
@@ -1701,7 +1731,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>93</v>
@@ -1710,7 +1740,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>93</v>
@@ -1719,16 +1749,18 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C58" s="14"/>
+      <c r="C58" s="14">
+        <v>43699</v>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>93</v>
@@ -1737,45 +1769,49 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C60" s="14"/>
+      <c r="C60" s="14">
+        <v>43705</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C61" s="14"/>
+      <c r="C61" s="14">
+        <v>43705</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="6" t="s">
-        <v>57</v>
+      <c r="A62" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C62" s="14">
-        <v>43679</v>
-      </c>
+      <c r="C62" s="14"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C63" s="14"/>
+      <c r="C63" s="14">
+        <v>43703</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>59</v>
+      <c r="A64" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>93</v>
@@ -1784,7 +1820,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>93</v>
@@ -1793,7 +1829,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>93</v>
@@ -1802,7 +1838,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>93</v>
@@ -1810,75 +1846,73 @@
       <c r="C67" s="14"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="6" t="s">
-        <v>63</v>
+      <c r="A68" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="C68" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C68" s="14"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C69" s="14">
-        <v>43686</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>65</v>
+      <c r="A70" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="14"/>
     </row>
-    <row r="71" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C71" s="14"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C72" s="14"/>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="B73" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="14"/>
-    </row>
-    <row r="72" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
+      <c r="C73" s="14"/>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B72" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="C72" s="14"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C73" s="14"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C74" s="14"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>200</v>
@@ -1887,7 +1921,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>200</v>
@@ -1896,7 +1930,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>200</v>
@@ -1904,19 +1938,17 @@
       <c r="C77" s="14"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="4" t="s">
-        <v>105</v>
+      <c r="A78" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="14">
-        <v>43682</v>
-      </c>
+      <c r="C78" s="14"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>200</v>
@@ -1924,17 +1956,19 @@
       <c r="C79" s="14"/>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
-        <v>107</v>
+      <c r="A80" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="C80" s="14"/>
+      <c r="C80" s="14">
+        <v>43704</v>
+      </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>200</v>
@@ -1943,7 +1977,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>200</v>
@@ -1952,7 +1986,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B83" s="13" t="s">
         <v>200</v>
@@ -1961,7 +1995,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>200</v>
@@ -1970,72 +2004,72 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C85" s="14"/>
     </row>
-    <row r="86" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B86" s="15" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B86" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C86" s="14"/>
     </row>
-    <row r="87" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B87" s="16" t="s">
-        <v>201</v>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="C87" s="14"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>115</v>
+        <v>206</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C88" s="14">
-        <v>43690</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="C88" s="14"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B89" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C89" s="14"/>
+    </row>
+    <row r="90" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C90" s="22"/>
+    </row>
+    <row r="91" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="C89" s="14"/>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C90" s="14"/>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="19">
+        <v>43706</v>
+      </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>201</v>
@@ -2044,7 +2078,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>201</v>
@@ -2053,7 +2087,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>201</v>
@@ -2062,7 +2096,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>201</v>
@@ -2070,8 +2104,8 @@
       <c r="C95" s="14"/>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>123</v>
+      <c r="A96" s="6" t="s">
+        <v>120</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>201</v>
@@ -2080,7 +2114,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>201</v>
@@ -2088,8 +2122,8 @@
       <c r="C97" s="14"/>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="6" t="s">
-        <v>125</v>
+      <c r="A98" s="1" t="s">
+        <v>122</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>201</v>
@@ -2098,18 +2132,16 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C99" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C99" s="14"/>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>201</v>
@@ -2117,8 +2149,8 @@
       <c r="C100" s="14"/>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>128</v>
+      <c r="A101" s="6" t="s">
+        <v>125</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>201</v>
@@ -2127,7 +2159,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>201</v>
@@ -2135,8 +2167,8 @@
       <c r="C102" s="14"/>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="6" t="s">
-        <v>130</v>
+      <c r="A103" s="1" t="s">
+        <v>127</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>201</v>
@@ -2145,7 +2177,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>201</v>
@@ -2154,7 +2186,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>201</v>
@@ -2162,8 +2194,8 @@
       <c r="C105" s="14"/>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
-        <v>133</v>
+      <c r="A106" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>201</v>
@@ -2172,7 +2204,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>201</v>
@@ -2181,7 +2213,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>201</v>
@@ -2190,7 +2222,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>201</v>
@@ -2199,123 +2231,119 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>201</v>
       </c>
       <c r="C110" s="14"/>
     </row>
-    <row r="111" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>138</v>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>135</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>201</v>
       </c>
       <c r="C111" s="14"/>
     </row>
-    <row r="112" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B112" s="16" t="s">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B112" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C112" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C112" s="14"/>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="6" t="s">
-        <v>140</v>
+      <c r="A113" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="C113" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
-        <v>141</v>
+      <c r="C113" s="14"/>
+    </row>
+    <row r="114" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>201</v>
       </c>
       <c r="C114" s="14"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B115" s="13" t="s">
+    <row r="115" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B115" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="14"/>
-    </row>
-    <row r="116" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>143</v>
+      <c r="C115" s="14">
+        <v>43704</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="6" t="s">
+        <v>140</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>201</v>
       </c>
       <c r="C116" s="14"/>
     </row>
-    <row r="117" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="3" t="s">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="14"/>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="14"/>
+    </row>
+    <row r="119" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="14"/>
+    </row>
+    <row r="120" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B117" s="16" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="14">
-        <v>43679</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C118" s="14"/>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C119" s="14"/>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B120" s="13" t="s">
+      <c r="B120" s="16" t="s">
         <v>202</v>
       </c>
       <c r="C120" s="14"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C121" s="14">
-        <v>43685</v>
+        <v>43692</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>202</v>
@@ -2324,7 +2352,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>202</v>
@@ -2333,70 +2361,72 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>202</v>
       </c>
-      <c r="C124" s="14"/>
+      <c r="C124" s="14">
+        <v>43704</v>
+      </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C125" s="14"/>
     </row>
-    <row r="126" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
-        <v>153</v>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C126" s="14"/>
     </row>
-    <row r="127" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="B127" s="16" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B127" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C127" s="14"/>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="6" t="s">
-        <v>155</v>
+      <c r="A128" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C128" s="14"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="6" t="s">
-        <v>156</v>
+    <row r="129" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C129" s="14"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B130" s="13" t="s">
+    <row r="130" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B130" s="16" t="s">
         <v>202</v>
       </c>
       <c r="C130" s="14"/>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
-        <v>158</v>
+      <c r="A131" s="6" t="s">
+        <v>155</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>202</v>
@@ -2404,8 +2434,8 @@
       <c r="C131" s="14"/>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>159</v>
+      <c r="A132" s="6" t="s">
+        <v>156</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>202</v>
@@ -2413,62 +2443,62 @@
       <c r="C132" s="14"/>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>160</v>
+      <c r="A133" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C133" s="14"/>
     </row>
-    <row r="134" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
-        <v>161</v>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C134" s="14"/>
     </row>
-    <row r="135" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="B135" s="16" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B135" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C135" s="14"/>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="6" t="s">
-        <v>163</v>
+      <c r="A136" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C136" s="14"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="6" t="s">
-        <v>164</v>
+    <row r="137" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="2" t="s">
+        <v>161</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C137" s="14"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B138" s="13" t="s">
+    <row r="138" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B138" s="16" t="s">
         <v>202</v>
       </c>
       <c r="C138" s="14"/>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>202</v>
@@ -2477,7 +2507,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>202</v>
@@ -2486,7 +2516,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>202</v>
@@ -2494,8 +2524,8 @@
       <c r="C141" s="14"/>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>169</v>
+      <c r="A142" s="6" t="s">
+        <v>166</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>202</v>
@@ -2503,8 +2533,8 @@
       <c r="C142" s="14"/>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>170</v>
+      <c r="A143" s="6" t="s">
+        <v>167</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>202</v>
@@ -2512,8 +2542,8 @@
       <c r="C143" s="14"/>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>171</v>
+      <c r="A144" s="6" t="s">
+        <v>168</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>202</v>
@@ -2521,66 +2551,62 @@
       <c r="C144" s="14"/>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="6" t="s">
-        <v>163</v>
+      <c r="A145" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C145" s="14"/>
     </row>
-    <row r="146" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>172</v>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>202</v>
       </c>
       <c r="C146" s="14"/>
     </row>
-    <row r="147" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="3" t="s">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B147" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C147" s="14"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="B148" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C148" s="14"/>
+    </row>
+    <row r="149" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="B149" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="C149" s="14"/>
+    </row>
+    <row r="150" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B147" s="16" t="s">
+      <c r="B150" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="C147" s="14">
-        <v>43676</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B148" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C148" s="14"/>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B149" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C149" s="14"/>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B150" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="C150" s="14">
-        <v>43676</v>
-      </c>
+      <c r="C150" s="14"/>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>94</v>
@@ -2589,7 +2615,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>94</v>
@@ -2598,63 +2624,61 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C153" s="14"/>
     </row>
-    <row r="154" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B154" s="15" t="s">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B154" s="13" t="s">
         <v>94</v>
       </c>
       <c r="C154" s="14"/>
     </row>
-    <row r="155" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B155" s="16" t="s">
-        <v>95</v>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B155" s="13" t="s">
+        <v>94</v>
       </c>
       <c r="C155" s="14"/>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B156" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C156" s="14"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B157" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="C157" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B158" s="13" t="s">
+    <row r="157" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B157" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C157" s="14"/>
+    </row>
+    <row r="158" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B158" s="16" t="s">
         <v>95</v>
       </c>
       <c r="C158" s="14"/>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>95</v>
@@ -2663,63 +2687,61 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C160" s="14"/>
     </row>
-    <row r="161" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B161" s="15" t="s">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C161" s="14"/>
     </row>
-    <row r="162" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B162" s="16" t="s">
-        <v>200</v>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B162" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="C162" s="14"/>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="B163" s="13" t="s">
-        <v>200</v>
+        <v>95</v>
       </c>
       <c r="C163" s="14"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B164" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C164" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B165" s="13" t="s">
+    <row r="164" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A164" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B164" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="C164" s="14"/>
+    </row>
+    <row r="165" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B165" s="16" t="s">
         <v>200</v>
       </c>
       <c r="C165" s="14"/>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>200</v>
@@ -2728,199 +2750,193 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C167" s="14"/>
     </row>
-    <row r="168" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
-        <v>179</v>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>176</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>200</v>
       </c>
       <c r="C168" s="14"/>
     </row>
-    <row r="169" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B169" s="17" t="s">
-        <v>96</v>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B169" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="C169" s="14"/>
     </row>
-    <row r="170" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B170" s="18" t="s">
-        <v>97</v>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B170" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="C170" s="14"/>
     </row>
     <row r="171" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B171" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C171" s="14"/>
+    </row>
+    <row r="172" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B172" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="C172" s="14"/>
+    </row>
+    <row r="173" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B173" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C173" s="14"/>
+    </row>
+    <row r="174" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B171" s="15" t="s">
+      <c r="B174" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C171" s="14"/>
-    </row>
-    <row r="172" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+      <c r="C174" s="14"/>
+    </row>
+    <row r="175" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B172" s="16" t="s">
+      <c r="B175" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C172" s="14">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B173" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C173" s="14"/>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B174" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C174" s="14"/>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B175" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C175" s="14"/>
+      <c r="C175" s="14">
+        <v>43691</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B176" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C176" s="14"/>
-    </row>
-    <row r="177" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B177" s="15" t="s">
+      <c r="C176" s="14">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B177" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C177" s="14"/>
-    </row>
-    <row r="178" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="B178" s="16" t="s">
+      <c r="C177" s="14">
+        <v>43691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B178" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C178" s="14"/>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>181</v>
+        <v>89</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C179" s="14">
-        <v>43677</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B180" s="13" t="s">
+      <c r="C179" s="14"/>
+    </row>
+    <row r="180" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B180" s="15" t="s">
         <v>98</v>
       </c>
       <c r="C180" s="14"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="B181" s="13" t="s">
+    <row r="181" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B181" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C181" s="14">
-        <v>43684</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
-        <v>184</v>
+      <c r="C181" s="14"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C182" s="14">
-        <v>43690</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A183" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B183" s="16" t="s">
+      <c r="C182" s="14"/>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B183" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C183" s="14"/>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C184" s="14"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
-        <v>187</v>
+    <row r="185" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="2" t="s">
+        <v>184</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C185" s="14">
-        <v>43686</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B186" s="13" t="s">
+      <c r="C185" s="14"/>
+    </row>
+    <row r="186" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B186" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="C186" s="14">
-        <v>43686</v>
-      </c>
+      <c r="C186" s="14"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>98</v>
@@ -2929,38 +2945,38 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B188" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C188" s="14"/>
+      <c r="C188" s="14">
+        <v>43705</v>
+      </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B189" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C189" s="14">
-        <v>43692</v>
+        <v>43705</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B190" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="C190" s="14">
-        <v>43679</v>
-      </c>
+      <c r="C190" s="14"/>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>98</v>
@@ -2969,12 +2985,39 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B192" s="13" t="s">
         <v>98</v>
       </c>
       <c r="C192" s="14"/>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B193" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C193" s="14"/>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B194" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C194" s="14"/>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B195" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C195" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
